--- a/Documents/Technical/TestUpload/DDAS_Upload_CaseStudy_4.xlsx
+++ b/Documents/Technical/TestUpload/DDAS_Upload_CaseStudy_4.xlsx
@@ -22,9 +22,6 @@
     <t>Sponsor Protocol Number</t>
   </si>
   <si>
-    <t>Role (Principal/Sub)</t>
-  </si>
-  <si>
     <t>Member ID</t>
   </si>
   <si>
@@ -67,18 +64,12 @@
     <t>Medical License Number</t>
   </si>
   <si>
-    <t>Principal</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
     <t>#6789</t>
   </si>
   <si>
-    <t>Sub</t>
-  </si>
-  <si>
     <t>0506/0708</t>
   </si>
   <si>
@@ -128,6 +119,15 @@
   </si>
   <si>
     <t>Ragni</t>
+  </si>
+  <si>
+    <t>Role (PI/Sub I)</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>Sub I</t>
   </si>
 </sst>
 </file>
@@ -584,7 +584,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -593,133 +593,133 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O2" s="4">
         <v>889</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Technical/TestUpload/DDAS_Upload_CaseStudy_4.xlsx
+++ b/Documents/Technical/TestUpload/DDAS_Upload_CaseStudy_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Project Number</t>
   </si>
@@ -70,9 +70,6 @@
     <t>#6789</t>
   </si>
   <si>
-    <t>0506/0708</t>
-  </si>
-  <si>
     <t>0506</t>
   </si>
   <si>
@@ -128,6 +125,15 @@
   </si>
   <si>
     <t>Sub I</t>
+  </si>
+  <si>
+    <t>Project Number 2</t>
+  </si>
+  <si>
+    <t>0000/0708</t>
+  </si>
+  <si>
+    <t>0506/0000</t>
   </si>
 </sst>
 </file>
@@ -537,189 +543,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.5703125" customWidth="1"/>
-    <col min="24" max="24" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5703125" customWidth="1"/>
+    <col min="25" max="25" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="4">
+        <v>889</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="6" t="s">
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="4">
-        <v>889</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>17</v>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
       </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="H5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Technical/TestUpload/DDAS_Upload_CaseStudy_4.xlsx
+++ b/Documents/Technical/TestUpload/DDAS_Upload_CaseStudy_4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -142,9 +142,6 @@
     <t>Bengaluru</t>
   </si>
   <si>
-    <t>India</t>
-  </si>
-  <si>
     <t>Karnataka</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>hkk124</t>
+  </si>
+  <si>
+    <t>AAA</t>
   </si>
 </sst>
 </file>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
@@ -747,7 +747,7 @@
         <v>33562</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -765,16 +765,16 @@
         <v>41</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q4">
         <v>560075</v>
       </c>
       <c r="R4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="S4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
